--- a/3.RestrictingData/RestrictingData.xlsx
+++ b/3.RestrictingData/RestrictingData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\quang\oracle\3.RestrictingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C40339A-E7D7-4D99-AD76-6DA01755D7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5276DB1F-8ED3-4CC0-AD5D-17D50FAD6CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="75" windowWidth="26130" windowHeight="13515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28785" yWindow="75" windowWidth="26130" windowHeight="13515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIKE Operator" sheetId="1" r:id="rId1"/>
+    <sheet name="IS NULL Operator" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>oracle</t>
     <phoneticPr fontId="1"/>
@@ -130,6 +131,57 @@
       <t>r%';</t>
     </r>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.IS+NULL+Operator(Code+Samples).sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SELECT * FROM employees WHERE commission_pct = NULL;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM employees WHERE commission_pct = NULL;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cannot perform</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a search by writing WHERE column_name = null.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oracle\3.RestrictingData\2.IS+NULL+Operator(Code+Samples).sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> * Lecture : IS NULL Operator                                  *</t>
+  </si>
+  <si>
+    <t>SELECT * FROM employees WHERE commission_pct IS NULL;</t>
+  </si>
+  <si>
+    <t>SELECT * FROM employees WHERE commission_pct IS NOT NULL;</t>
   </si>
 </sst>
 </file>
@@ -267,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -278,6 +330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -378,6 +431,143 @@
         <a:xfrm>
           <a:off x="800100" y="11544299"/>
           <a:ext cx="9229725" cy="3334825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>456452</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A158A18-896A-0195-2F90-427E7C62EAD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="2425700"/>
+          <a:ext cx="5523752" cy="2632075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>345623</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37975C77-8D84-68A7-CF5B-3CB9748867FD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="790574" y="5791200"/>
+          <a:ext cx="8756199" cy="2724150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>183775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AD81C1D-B0D9-C0FF-0261-584A55C76B03}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="742950" y="5610224"/>
+          <a:ext cx="8572500" cy="2803151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -654,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -739,166 +929,82 @@
       <c r="B33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
       <c r="I34" s="5"/>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
       <c r="I35" s="5"/>
     </row>
     <row r="36" spans="2:9">
       <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
       <c r="I36" s="5"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="4"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
       <c r="I37" s="5"/>
     </row>
     <row r="38" spans="2:9">
       <c r="B38" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
       <c r="I38" s="5"/>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
       <c r="I39" s="5"/>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
       <c r="I40" s="5"/>
     </row>
     <row r="41" spans="2:9">
       <c r="B41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
       <c r="I41" s="5"/>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
       <c r="I42" s="5"/>
     </row>
     <row r="43" spans="2:9">
       <c r="B43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
       <c r="I43" s="5"/>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
       <c r="I44" s="5"/>
     </row>
     <row r="45" spans="2:9">
       <c r="B45" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
       <c r="I45" s="5"/>
     </row>
     <row r="46" spans="2:9">
       <c r="B46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="10"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
       <c r="I46" s="5"/>
     </row>
     <row r="47" spans="2:9">
@@ -938,257 +1044,62 @@
     </row>
     <row r="51" spans="2:18">
       <c r="B51" s="4"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="10"/>
-      <c r="O51" s="10"/>
       <c r="P51" s="5"/>
     </row>
     <row r="52" spans="2:18">
       <c r="B52" s="4"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="10"/>
-      <c r="O52" s="10"/>
       <c r="P52" s="5"/>
     </row>
     <row r="53" spans="2:18">
       <c r="B53" s="4"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
       <c r="P53" s="5"/>
     </row>
     <row r="54" spans="2:18">
       <c r="B54" s="4"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
       <c r="P54" s="5"/>
     </row>
     <row r="55" spans="2:18">
       <c r="B55" s="4"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
       <c r="P55" s="5"/>
     </row>
     <row r="56" spans="2:18">
       <c r="B56" s="4"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
       <c r="P56" s="5"/>
     </row>
     <row r="57" spans="2:18">
       <c r="B57" s="4"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
       <c r="P57" s="5"/>
     </row>
     <row r="58" spans="2:18">
       <c r="B58" s="4"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
       <c r="P58" s="5"/>
     </row>
     <row r="59" spans="2:18">
       <c r="B59" s="4"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
       <c r="P59" s="5"/>
     </row>
     <row r="60" spans="2:18">
       <c r="B60" s="4"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
       <c r="P60" s="5"/>
     </row>
     <row r="61" spans="2:18">
       <c r="B61" s="4"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
       <c r="P61" s="5"/>
     </row>
     <row r="62" spans="2:18">
       <c r="B62" s="4"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
       <c r="P62" s="5"/>
     </row>
     <row r="63" spans="2:18">
       <c r="B63" s="4"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
       <c r="P63" s="5"/>
     </row>
     <row r="64" spans="2:18">
       <c r="B64" s="4"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
       <c r="P64" s="5"/>
     </row>
     <row r="65" spans="2:16">
       <c r="B65" s="4"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
       <c r="P65" s="5"/>
     </row>
     <row r="66" spans="2:16">
@@ -1213,4 +1124,663 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1A7BC9-581F-4F67-94E3-DBA65E287CB3}">
+  <dimension ref="B3:Q64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="4"/>
+      <c r="D7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="4"/>
+      <c r="D8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="5"/>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="9"/>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30" s="4"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="B31" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" s="7"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="3"/>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" s="4"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="5"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="4"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="5"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="4"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="5"/>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" s="4"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="5"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="4"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="5"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="4"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="5"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="4"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="5"/>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" s="4"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+      <c r="O45" s="5"/>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" s="4"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+      <c r="O46" s="5"/>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" s="4"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+      <c r="O47" s="5"/>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" s="4"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+      <c r="O48" s="5"/>
+    </row>
+    <row r="49" spans="2:17">
+      <c r="B49" s="4"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+      <c r="O49" s="5"/>
+    </row>
+    <row r="50" spans="2:17">
+      <c r="B50" s="4"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="5"/>
+    </row>
+    <row r="51" spans="2:17">
+      <c r="B51" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+      <c r="O51" s="5"/>
+      <c r="P51" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17">
+      <c r="B52" s="4"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="5"/>
+    </row>
+    <row r="53" spans="2:17">
+      <c r="B53" s="4"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+      <c r="O53" s="5"/>
+    </row>
+    <row r="54" spans="2:17">
+      <c r="B54" s="4"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+      <c r="O54" s="5"/>
+    </row>
+    <row r="55" spans="2:17">
+      <c r="B55" s="4"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="5"/>
+    </row>
+    <row r="56" spans="2:17">
+      <c r="B56" s="4"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="5"/>
+    </row>
+    <row r="57" spans="2:17">
+      <c r="B57" s="4"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="5"/>
+    </row>
+    <row r="58" spans="2:17">
+      <c r="B58" s="4"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="5"/>
+    </row>
+    <row r="59" spans="2:17">
+      <c r="B59" s="4"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="5"/>
+    </row>
+    <row r="60" spans="2:17">
+      <c r="B60" s="4"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="5"/>
+    </row>
+    <row r="61" spans="2:17">
+      <c r="B61" s="4"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="5"/>
+    </row>
+    <row r="62" spans="2:17">
+      <c r="B62" s="4"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="5"/>
+    </row>
+    <row r="63" spans="2:17">
+      <c r="B63" s="4"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="5"/>
+    </row>
+    <row r="64" spans="2:17">
+      <c r="B64" s="7"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/3.RestrictingData/RestrictingData.xlsx
+++ b/3.RestrictingData/RestrictingData.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\quang\oracle\3.RestrictingData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5276DB1F-8ED3-4CC0-AD5D-17D50FAD6CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F2986E-AA64-4907-A0D6-4C5503FA461E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28785" yWindow="75" windowWidth="26130" windowHeight="13515" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28785" yWindow="75" windowWidth="26130" windowHeight="13515" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LIKE Operator" sheetId="1" r:id="rId1"/>
     <sheet name="IS NULL Operator" sheetId="2" r:id="rId2"/>
+    <sheet name="Rules of Precedence" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="47">
   <si>
     <t>oracle</t>
     <phoneticPr fontId="1"/>
@@ -182,6 +183,57 @@
   </si>
   <si>
     <t>SELECT * FROM employees WHERE commission_pct IS NOT NULL;</t>
+  </si>
+  <si>
+    <t>3.Rules+of+Precedence(Code+Samples).sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oracle\3.RestrictingData\3.Rules+of+Precedence(Code+Samples).sql</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t> * Lecture : Rules of Precedence                               *</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT first_name, last_name, job_id, salary FROM employees </t>
+  </si>
+  <si>
+    <t>WHERE (job_id = 'IT_PROG' or job_id = 'ST_CLERK') and salary &gt; 5000;</t>
+  </si>
+  <si>
+    <t>WHERE job_id = 'IT_PROG' or (job_id = 'ST_CLERK' and salary &gt; 5000);</t>
+  </si>
+  <si>
+    <t>WHERE job_id = 'IT_PROG' or job_id = 'ST_CLERK' and salary &gt; 5000;</t>
+  </si>
+  <si>
+    <t>SELECT first_name, last_name, department_id, salary</t>
+  </si>
+  <si>
+    <t>FROM employees</t>
+  </si>
+  <si>
+    <t>WHERE salary &gt; 10000 AND department_id = 20 OR department_id = 30;</t>
+  </si>
+  <si>
+    <t>WHERE salary &gt; 10000 AND (department_id = 20 OR department_id = 30);</t>
+  </si>
+  <si>
+    <t>+ - * /</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>||</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AND operation is performed first by default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>whose salary is greater than 10000 and department_id equal to 20</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -319,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -332,6 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -568,6 +621,353 @@
         <a:xfrm>
           <a:off x="742950" y="5610224"/>
           <a:ext cx="8572500" cy="2803151"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54513</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99674383-DA0E-D584-43AD-C201FB068B8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="2838450"/>
+          <a:ext cx="10465338" cy="4476980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="直線矢印コネクタ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EF70FF6-2E7B-3FB0-E444-DEFBE51E2515}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="3933825"/>
+          <a:ext cx="7381875" cy="66675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>92075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矢印: 上下 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4E57E03-B8DA-D248-EDEF-766AE6EB2630}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1406525" y="14227175"/>
+          <a:ext cx="165100" cy="574675"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>120649</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>171399</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FC1D83D-1DFA-96D4-CA71-E471376F5698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="777874" y="20421600"/>
+          <a:ext cx="8385175" cy="4438599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA83B324-AD5F-295E-92EB-5F2FE1B1FB42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2143125" y="21955125"/>
+          <a:ext cx="276225" cy="2305050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276226</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>110118</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B999D69-C783-7B5E-55EB-657EAE7C69FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="26174700"/>
+          <a:ext cx="7991476" cy="3653418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>221596</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>12255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D81EFA4-D7B2-8A62-20F0-373DF523D7FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="15417800"/>
+          <a:ext cx="5231746" cy="3568255"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1130,8 +1530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE1A7BC9-581F-4F67-94E3-DBA65E287CB3}">
   <dimension ref="B3:Q64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1172,7 +1572,7 @@
     </row>
     <row r="7" spans="2:12">
       <c r="B7" s="4"/>
-      <c r="D7" s="10" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="J7" s="5"/>
@@ -1222,94 +1622,46 @@
       <c r="B26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="2:9">
       <c r="B27" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
       <c r="I27" s="5"/>
     </row>
     <row r="28" spans="2:9">
       <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
       <c r="I28" s="5"/>
     </row>
     <row r="29" spans="2:9">
       <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
       <c r="I29" s="5"/>
     </row>
     <row r="30" spans="2:9">
       <c r="B30" s="4"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
       <c r="I30" s="5"/>
     </row>
     <row r="31" spans="2:9">
       <c r="B31" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
       <c r="I31" s="5"/>
     </row>
     <row r="32" spans="2:9">
       <c r="B32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
       <c r="I32" s="5"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
       <c r="I33" s="5"/>
     </row>
     <row r="34" spans="2:15">
@@ -1340,228 +1692,60 @@
     </row>
     <row r="38" spans="2:15">
       <c r="B38" s="4"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11"/>
       <c r="O38" s="5"/>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="4"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
       <c r="O39" s="5"/>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="4"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
       <c r="O40" s="5"/>
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="4"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11"/>
       <c r="O41" s="5"/>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="4"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
       <c r="O42" s="5"/>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="4"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11"/>
       <c r="O43" s="5"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="4"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11"/>
       <c r="O44" s="5"/>
     </row>
     <row r="45" spans="2:15">
       <c r="B45" s="4"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
       <c r="O45" s="5"/>
     </row>
     <row r="46" spans="2:15">
       <c r="B46" s="4"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11"/>
       <c r="O46" s="5"/>
     </row>
     <row r="47" spans="2:15">
       <c r="B47" s="4"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
       <c r="O47" s="5"/>
     </row>
     <row r="48" spans="2:15">
       <c r="B48" s="4"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
       <c r="O48" s="5"/>
     </row>
     <row r="49" spans="2:17">
       <c r="B49" s="4"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11"/>
       <c r="O49" s="5"/>
     </row>
     <row r="50" spans="2:17">
       <c r="B50" s="4"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11"/>
       <c r="O50" s="5"/>
     </row>
     <row r="51" spans="2:17">
       <c r="B51" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11"/>
       <c r="O51" s="5"/>
       <c r="P51" t="s">
         <v>3</v>
@@ -1572,194 +1756,50 @@
     </row>
     <row r="52" spans="2:17">
       <c r="B52" s="4"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11"/>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
       <c r="O52" s="5"/>
     </row>
     <row r="53" spans="2:17">
       <c r="B53" s="4"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
       <c r="O53" s="5"/>
     </row>
     <row r="54" spans="2:17">
       <c r="B54" s="4"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
       <c r="O54" s="5"/>
     </row>
     <row r="55" spans="2:17">
       <c r="B55" s="4"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
       <c r="O55" s="5"/>
     </row>
     <row r="56" spans="2:17">
       <c r="B56" s="4"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
       <c r="O56" s="5"/>
     </row>
     <row r="57" spans="2:17">
       <c r="B57" s="4"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
       <c r="O57" s="5"/>
     </row>
     <row r="58" spans="2:17">
       <c r="B58" s="4"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
       <c r="O58" s="5"/>
     </row>
     <row r="59" spans="2:17">
       <c r="B59" s="4"/>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
-      <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
       <c r="O59" s="5"/>
     </row>
     <row r="60" spans="2:17">
       <c r="B60" s="4"/>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-      <c r="M60" s="11"/>
-      <c r="N60" s="11"/>
       <c r="O60" s="5"/>
     </row>
     <row r="61" spans="2:17">
       <c r="B61" s="4"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
-      <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
       <c r="O61" s="5"/>
     </row>
     <row r="62" spans="2:17">
       <c r="B62" s="4"/>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="11"/>
-      <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
-      <c r="M62" s="11"/>
-      <c r="N62" s="11"/>
       <c r="O62" s="5"/>
     </row>
     <row r="63" spans="2:17">
       <c r="B63" s="4"/>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-      <c r="M63" s="11"/>
-      <c r="N63" s="11"/>
       <c r="O63" s="5"/>
     </row>
     <row r="64" spans="2:17">
@@ -1783,4 +1823,1408 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCE2AA41-9B30-4710-958A-0D58CC25C89A}">
+  <dimension ref="B3:S131"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q127" sqref="Q127"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:12">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="4"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="4"/>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="4"/>
+      <c r="D8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="4"/>
+      <c r="D9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="5"/>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="18" spans="19:19">
+      <c r="S18" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="19:19">
+      <c r="S19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="4"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="4"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" s="4"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="2:14">
+      <c r="B49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="2:14">
+      <c r="B50" s="4"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="2:14">
+      <c r="B51" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="2:14">
+      <c r="B52" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="2:14">
+      <c r="B53" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="2:14">
+      <c r="B54" s="4"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="2:14">
+      <c r="B55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="2:14">
+      <c r="B56" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="2:14">
+      <c r="B57" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="2:14">
+      <c r="B58" s="7"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="9"/>
+    </row>
+    <row r="61" spans="2:14">
+      <c r="B61" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="2:14">
+      <c r="B62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="5"/>
+      <c r="M62" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
+      <c r="B63" s="4"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="5"/>
+    </row>
+    <row r="64" spans="2:14">
+      <c r="B64" s="4"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="5"/>
+    </row>
+    <row r="65" spans="2:12">
+      <c r="B65" s="4"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="5"/>
+    </row>
+    <row r="66" spans="2:12">
+      <c r="B66" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="5"/>
+    </row>
+    <row r="67" spans="2:12">
+      <c r="B67" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="5"/>
+    </row>
+    <row r="68" spans="2:12">
+      <c r="B68" s="4"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="5"/>
+    </row>
+    <row r="69" spans="2:12">
+      <c r="B69" s="4"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="5"/>
+    </row>
+    <row r="70" spans="2:12">
+      <c r="B70" s="4"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="5"/>
+    </row>
+    <row r="71" spans="2:12">
+      <c r="B71" s="4"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="5"/>
+    </row>
+    <row r="72" spans="2:12">
+      <c r="B72" s="4"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="5"/>
+    </row>
+    <row r="73" spans="2:12">
+      <c r="B73" s="4"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="5"/>
+    </row>
+    <row r="74" spans="2:12">
+      <c r="B74" s="4"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="5"/>
+    </row>
+    <row r="75" spans="2:12">
+      <c r="B75" s="4"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="5"/>
+    </row>
+    <row r="76" spans="2:12">
+      <c r="B76" s="4"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="5"/>
+    </row>
+    <row r="77" spans="2:12">
+      <c r="B77" s="4"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="5"/>
+    </row>
+    <row r="78" spans="2:12">
+      <c r="B78" s="4"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="5"/>
+    </row>
+    <row r="79" spans="2:12">
+      <c r="B79" s="4"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="5"/>
+    </row>
+    <row r="80" spans="2:12">
+      <c r="B80" s="4"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="11"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="11"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="5"/>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" s="4"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="5"/>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="B82" s="4"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="5"/>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" s="4"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="5"/>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" s="7"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="8"/>
+      <c r="K84" s="8"/>
+      <c r="L84" s="9"/>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="11"/>
+      <c r="O88" s="5"/>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="B89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="11"/>
+      <c r="O89" s="5"/>
+    </row>
+    <row r="90" spans="2:15">
+      <c r="B90" s="4"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
+      <c r="E90" s="11"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="11"/>
+      <c r="O90" s="5"/>
+    </row>
+    <row r="91" spans="2:15">
+      <c r="B91" s="4"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
+      <c r="E91" s="11"/>
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="11"/>
+      <c r="O91" s="5"/>
+    </row>
+    <row r="92" spans="2:15">
+      <c r="B92" s="4"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="11"/>
+      <c r="O92" s="5"/>
+    </row>
+    <row r="93" spans="2:15">
+      <c r="B93" s="4"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="11"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11"/>
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="11"/>
+      <c r="O93" s="5"/>
+    </row>
+    <row r="94" spans="2:15">
+      <c r="B94" s="4"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="11"/>
+      <c r="O94" s="5"/>
+    </row>
+    <row r="95" spans="2:15">
+      <c r="B95" s="4"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="11"/>
+      <c r="O95" s="5"/>
+    </row>
+    <row r="96" spans="2:15">
+      <c r="B96" s="4"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11"/>
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="11"/>
+      <c r="O96" s="5"/>
+    </row>
+    <row r="97" spans="2:17">
+      <c r="B97" s="4"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="11"/>
+      <c r="L97" s="11"/>
+      <c r="M97" s="11"/>
+      <c r="N97" s="11"/>
+      <c r="O97" s="5"/>
+    </row>
+    <row r="98" spans="2:17">
+      <c r="B98" s="4"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="11"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="11"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="5"/>
+    </row>
+    <row r="99" spans="2:17">
+      <c r="B99" s="4"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11"/>
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="11"/>
+      <c r="O99" s="5"/>
+    </row>
+    <row r="100" spans="2:17">
+      <c r="B100" s="4"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="11"/>
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
+      <c r="O100" s="5"/>
+    </row>
+    <row r="101" spans="2:17">
+      <c r="B101" s="4"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
+      <c r="O101" s="5"/>
+    </row>
+    <row r="102" spans="2:17">
+      <c r="B102" s="4"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
+      <c r="O102" s="5"/>
+    </row>
+    <row r="103" spans="2:17">
+      <c r="B103" s="4"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
+      <c r="O103" s="5"/>
+    </row>
+    <row r="104" spans="2:17">
+      <c r="B104" s="4"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
+      <c r="O104" s="5"/>
+    </row>
+    <row r="105" spans="2:17">
+      <c r="B105" s="4"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
+      <c r="O105" s="5"/>
+    </row>
+    <row r="106" spans="2:17">
+      <c r="B106" s="4"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="11"/>
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
+      <c r="O106" s="5"/>
+    </row>
+    <row r="107" spans="2:17">
+      <c r="B107" s="4"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
+      <c r="O107" s="5"/>
+      <c r="P107" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="108" spans="2:17">
+      <c r="B108" s="4"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="11"/>
+      <c r="F108" s="11"/>
+      <c r="G108" s="11"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
+      <c r="O108" s="5"/>
+    </row>
+    <row r="109" spans="2:17">
+      <c r="B109" s="7"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
+      <c r="J109" s="8"/>
+      <c r="K109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="9"/>
+    </row>
+    <row r="112" spans="2:17">
+      <c r="B112" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="3"/>
+    </row>
+    <row r="113" spans="2:14">
+      <c r="B113" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="5"/>
+    </row>
+    <row r="114" spans="2:14">
+      <c r="B114" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C114" s="11"/>
+      <c r="D114" s="11"/>
+      <c r="E114" s="11"/>
+      <c r="F114" s="11"/>
+      <c r="G114" s="11"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11"/>
+      <c r="L114" s="11"/>
+      <c r="M114" s="11"/>
+      <c r="N114" s="5"/>
+    </row>
+    <row r="115" spans="2:14">
+      <c r="B115" s="4"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="5"/>
+    </row>
+    <row r="116" spans="2:14">
+      <c r="B116" s="4"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="5"/>
+    </row>
+    <row r="117" spans="2:14">
+      <c r="B117" s="4"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="11"/>
+      <c r="L117" s="11"/>
+      <c r="M117" s="11"/>
+      <c r="N117" s="5"/>
+    </row>
+    <row r="118" spans="2:14">
+      <c r="B118" s="4"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="5"/>
+    </row>
+    <row r="119" spans="2:14">
+      <c r="B119" s="4"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11"/>
+      <c r="L119" s="11"/>
+      <c r="M119" s="11"/>
+      <c r="N119" s="5"/>
+    </row>
+    <row r="120" spans="2:14">
+      <c r="B120" s="4"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="5"/>
+    </row>
+    <row r="121" spans="2:14">
+      <c r="B121" s="4"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11"/>
+      <c r="L121" s="11"/>
+      <c r="M121" s="11"/>
+      <c r="N121" s="5"/>
+    </row>
+    <row r="122" spans="2:14">
+      <c r="B122" s="4"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="5"/>
+    </row>
+    <row r="123" spans="2:14">
+      <c r="B123" s="4"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="11"/>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11"/>
+      <c r="G123" s="11"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="11"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="11"/>
+      <c r="L123" s="11"/>
+      <c r="M123" s="11"/>
+      <c r="N123" s="5"/>
+    </row>
+    <row r="124" spans="2:14">
+      <c r="B124" s="4"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="11"/>
+      <c r="E124" s="11"/>
+      <c r="F124" s="11"/>
+      <c r="G124" s="11"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11"/>
+      <c r="L124" s="11"/>
+      <c r="M124" s="11"/>
+      <c r="N124" s="5"/>
+    </row>
+    <row r="125" spans="2:14">
+      <c r="B125" s="4"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11"/>
+      <c r="L125" s="11"/>
+      <c r="M125" s="11"/>
+      <c r="N125" s="5"/>
+    </row>
+    <row r="126" spans="2:14">
+      <c r="B126" s="4"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="11"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11"/>
+      <c r="L126" s="11"/>
+      <c r="M126" s="11"/>
+      <c r="N126" s="5"/>
+    </row>
+    <row r="127" spans="2:14">
+      <c r="B127" s="4"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="11"/>
+      <c r="E127" s="11"/>
+      <c r="F127" s="11"/>
+      <c r="G127" s="11"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+      <c r="N127" s="5"/>
+    </row>
+    <row r="128" spans="2:14">
+      <c r="B128" s="4"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11"/>
+      <c r="G128" s="11"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="11"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="11"/>
+      <c r="L128" s="11"/>
+      <c r="M128" s="11"/>
+      <c r="N128" s="5"/>
+    </row>
+    <row r="129" spans="2:14">
+      <c r="B129" s="4"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="11"/>
+      <c r="L129" s="11"/>
+      <c r="M129" s="11"/>
+      <c r="N129" s="5"/>
+    </row>
+    <row r="130" spans="2:14">
+      <c r="B130" s="4"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="11"/>
+      <c r="E130" s="11"/>
+      <c r="F130" s="11"/>
+      <c r="G130" s="11"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11"/>
+      <c r="L130" s="11"/>
+      <c r="M130" s="11"/>
+      <c r="N130" s="5"/>
+    </row>
+    <row r="131" spans="2:14">
+      <c r="B131" s="7"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
+      <c r="N131" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>